--- a/tests/HardPositions/111721.xlsx
+++ b/tests/HardPositions/111721.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\ShashChess-master\tests\HardPositions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{883FF280-3EDC-4894-A59D-942122113D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FFE75-8A47-4ED6-BDF8-115C8D9816EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{93EEE00A-3285-40CB-B76A-E0BE9F6CC3BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="507">
   <si>
     <t>b4 (93)</t>
   </si>
@@ -853,9 +853,6 @@
   </si>
   <si>
     <t>Ra7 (0)</t>
-  </si>
-  <si>
-    <t>ShashChess19.3-x86-64-bmi2</t>
   </si>
   <si>
     <t>Qc1 (100)</t>
@@ -1906,7 +1903,7 @@
   <dimension ref="A1:C324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316"/>
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,21 +1915,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" t="s">
         <v>453</v>
       </c>
-      <c r="B1" t="s">
-        <v>454</v>
-      </c>
       <c r="C1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
         <v>217</v>
@@ -1951,13 +1948,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1979,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2012,7 +2009,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2034,7 +2031,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2045,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2061,13 +2058,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
         <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,12 +2075,12 @@
         <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -2100,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2119,10 +2116,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2144,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2163,10 +2160,10 @@
         <v>245</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2199,15 +2196,15 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C27" t="s">
         <v>86</v>
@@ -2229,10 +2226,10 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2243,18 +2240,18 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" t="s">
         <v>223</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2262,10 +2259,10 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2325,7 +2322,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s">
         <v>224</v>
@@ -2336,13 +2333,13 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,7 +2361,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2372,7 +2369,7 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -2446,13 +2443,13 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2471,7 +2468,7 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
@@ -2482,10 +2479,10 @@
         <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2523,7 +2520,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s">
         <v>229</v>
@@ -2548,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
         <v>45</v>
@@ -2559,7 +2556,7 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -2595,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2606,7 +2603,7 @@
         <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2636,10 +2633,10 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2650,7 +2647,7 @@
         <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2661,7 +2658,7 @@
         <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2710,13 +2707,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2732,7 +2729,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
@@ -2765,7 +2762,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B78" t="s">
         <v>219</v>
@@ -2798,10 +2795,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C81" t="s">
         <v>77</v>
@@ -2826,18 +2823,18 @@
         <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2881,7 +2878,7 @@
         <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2922,7 +2919,7 @@
         <v>73</v>
       </c>
       <c r="B92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C92" t="s">
         <v>234</v>
@@ -2936,7 +2933,7 @@
         <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2947,15 +2944,15 @@
         <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B95" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C95" t="s">
         <v>235</v>
@@ -2977,7 +2974,7 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" t="s">
         <v>39</v>
@@ -2988,15 +2985,15 @@
         <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B99" t="s">
         <v>24</v>
@@ -3035,12 +3032,12 @@
         <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B103" t="s">
         <v>80</v>
@@ -3051,13 +3048,13 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B104" t="s">
         <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,13 +3070,13 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B106" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3123,7 +3120,7 @@
         <v>85</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -3153,7 +3150,7 @@
         <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C113" t="s">
         <v>88</v>
@@ -3167,7 +3164,7 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3255,7 +3252,7 @@
         <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -3304,13 +3301,13 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -3343,7 +3340,7 @@
         <v>241</v>
       </c>
       <c r="C130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -3354,7 +3351,7 @@
         <v>97</v>
       </c>
       <c r="C131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -3381,7 +3378,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B134" t="s">
         <v>99</v>
@@ -3392,18 +3389,18 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B135" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B136" t="s">
         <v>231</v>
@@ -3414,7 +3411,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -3475,12 +3472,12 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B143" t="s">
         <v>102</v>
@@ -3516,10 +3513,10 @@
         <v>105</v>
       </c>
       <c r="B146" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C146" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -3530,7 +3527,7 @@
         <v>106</v>
       </c>
       <c r="C147" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -3541,12 +3538,12 @@
         <v>31</v>
       </c>
       <c r="C148" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
         <v>107</v>
@@ -3590,24 +3587,24 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B153" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B154" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C154" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -3634,10 +3631,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B157" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C157" t="s">
         <v>61</v>
@@ -3648,7 +3645,7 @@
         <v>112</v>
       </c>
       <c r="B158" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C158" t="s">
         <v>123</v>
@@ -3667,13 +3664,13 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B160" t="s">
         <v>114</v>
       </c>
       <c r="C160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -3681,10 +3678,10 @@
         <v>115</v>
       </c>
       <c r="B161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -3695,15 +3692,15 @@
         <v>116</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B163" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C163" t="s">
         <v>264</v>
@@ -3725,7 +3722,7 @@
         <v>118</v>
       </c>
       <c r="B165" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C165" t="s">
         <v>147</v>
@@ -3744,7 +3741,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B167" t="s">
         <v>0</v>
@@ -3772,7 +3769,7 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -3802,7 +3799,7 @@
         <v>245</v>
       </c>
       <c r="B172" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C172" t="s">
         <v>162</v>
@@ -3821,13 +3818,13 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B174" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C174" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -3846,10 +3843,10 @@
         <v>247</v>
       </c>
       <c r="B176" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3857,7 +3854,7 @@
         <v>125</v>
       </c>
       <c r="B177" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C177" t="s">
         <v>56</v>
@@ -3871,15 +3868,15 @@
         <v>126</v>
       </c>
       <c r="C178" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B179" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C179" t="s">
         <v>31</v>
@@ -3890,21 +3887,21 @@
         <v>127</v>
       </c>
       <c r="B180" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C180" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B181" t="s">
         <v>128</v>
       </c>
       <c r="C181" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3926,7 +3923,7 @@
         <v>67</v>
       </c>
       <c r="C183" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3937,7 +3934,7 @@
         <v>248</v>
       </c>
       <c r="C184" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3959,12 +3956,12 @@
         <v>96</v>
       </c>
       <c r="C186" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -3986,13 +3983,13 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B189" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C189" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -4019,13 +4016,13 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B192" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C192" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4047,7 +4044,7 @@
         <v>249</v>
       </c>
       <c r="C194" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -4055,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -4066,10 +4063,10 @@
         <v>137</v>
       </c>
       <c r="B196" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C196" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4080,15 +4077,15 @@
         <v>250</v>
       </c>
       <c r="C197" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B198" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C198" t="s">
         <v>138</v>
@@ -4096,10 +4093,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B199" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C199" t="s">
         <v>138</v>
@@ -4118,13 +4115,13 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B201" t="s">
         <v>140</v>
       </c>
       <c r="C201" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -4135,7 +4132,7 @@
         <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4173,13 +4170,13 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B206" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C206" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -4190,7 +4187,7 @@
         <v>83</v>
       </c>
       <c r="C207" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4206,13 +4203,13 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B209" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C209" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4223,18 +4220,18 @@
         <v>145</v>
       </c>
       <c r="C210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B211" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4242,7 +4239,7 @@
         <v>146</v>
       </c>
       <c r="B212" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C212" t="s">
         <v>146</v>
@@ -4250,13 +4247,13 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B213" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C213" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -4278,7 +4275,7 @@
         <v>253</v>
       </c>
       <c r="C215" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -4286,10 +4283,10 @@
         <v>149</v>
       </c>
       <c r="B216" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C216" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -4333,15 +4330,15 @@
         <v>151</v>
       </c>
       <c r="C220" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B221" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C221" t="s">
         <v>31</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B222" t="s">
         <v>152</v>
@@ -4382,24 +4379,24 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B225" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C225" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B226" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -4407,10 +4404,10 @@
         <v>31</v>
       </c>
       <c r="B227" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -4421,7 +4418,7 @@
         <v>154</v>
       </c>
       <c r="C228" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -4437,13 +4434,13 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B230" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4465,18 +4462,18 @@
         <v>156</v>
       </c>
       <c r="C232" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B233" t="s">
         <v>157</v>
       </c>
       <c r="C233" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -4484,7 +4481,7 @@
         <v>158</v>
       </c>
       <c r="B234" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C234" t="s">
         <v>258</v>
@@ -4495,10 +4492,10 @@
         <v>159</v>
       </c>
       <c r="B235" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C235" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -4514,13 +4511,13 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B237" t="s">
         <v>259</v>
       </c>
       <c r="C237" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -4536,10 +4533,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B239" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C239" t="s">
         <v>163</v>
@@ -4553,18 +4550,18 @@
         <v>164</v>
       </c>
       <c r="C240" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B241" t="s">
         <v>217</v>
       </c>
       <c r="C241" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4572,21 +4569,21 @@
         <v>165</v>
       </c>
       <c r="B242" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C242" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B243" t="s">
         <v>166</v>
       </c>
       <c r="C243" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4602,13 +4599,13 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B245" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C245" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4635,13 +4632,13 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B248" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C248" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4649,26 +4646,26 @@
         <v>169</v>
       </c>
       <c r="B249" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C249" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B250" t="s">
         <v>260</v>
       </c>
       <c r="C250" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B251" t="s">
         <v>261</v>
@@ -4679,7 +4676,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B252" t="s">
         <v>262</v>
@@ -4729,7 +4726,7 @@
         <v>263</v>
       </c>
       <c r="C256" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4803,7 +4800,7 @@
         <v>179</v>
       </c>
       <c r="B263" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C263" t="s">
         <v>252</v>
@@ -4817,7 +4814,7 @@
         <v>180</v>
       </c>
       <c r="C264" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -4836,7 +4833,7 @@
         <v>182</v>
       </c>
       <c r="B266" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C266" t="s">
         <v>182</v>
@@ -4847,21 +4844,21 @@
         <v>183</v>
       </c>
       <c r="B267" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C267" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B268" t="s">
         <v>45</v>
       </c>
       <c r="C268" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -4869,7 +4866,7 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C269" t="s">
         <v>150</v>
@@ -4877,7 +4874,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B270" t="s">
         <v>184</v>
@@ -4960,7 +4957,7 @@
         <v>264</v>
       </c>
       <c r="C277" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -4982,7 +4979,7 @@
         <v>188</v>
       </c>
       <c r="C279" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -4998,13 +4995,13 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B281" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C281" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -5020,13 +5017,13 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B283" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C283" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -5042,7 +5039,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B285" t="s">
         <v>268</v>
@@ -5059,7 +5056,7 @@
         <v>132</v>
       </c>
       <c r="C286" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -5081,18 +5078,18 @@
         <v>193</v>
       </c>
       <c r="C288" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B289" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C289" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -5158,7 +5155,7 @@
         <v>271</v>
       </c>
       <c r="C295" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -5196,7 +5193,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B299" t="s">
         <v>176</v>
@@ -5218,13 +5215,13 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B301" t="s">
         <v>272</v>
       </c>
       <c r="C301" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -5268,7 +5265,7 @@
         <v>207</v>
       </c>
       <c r="C305" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -5279,7 +5276,7 @@
         <v>87</v>
       </c>
       <c r="C306" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -5301,15 +5298,15 @@
         <v>209</v>
       </c>
       <c r="C308" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B309" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C309" t="s">
         <v>210</v>
@@ -5339,13 +5336,13 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B312" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C312" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -5356,7 +5353,7 @@
         <v>212</v>
       </c>
       <c r="C313" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -5364,10 +5361,10 @@
         <v>213</v>
       </c>
       <c r="B314" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C314" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -5378,18 +5375,18 @@
         <v>214</v>
       </c>
       <c r="C315" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B316" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C316" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -5405,13 +5402,13 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B318" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C318" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -5427,13 +5424,13 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>276</v>
+        <v>452</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
